--- a/result/reg/fwd_all.xlsx
+++ b/result/reg/fwd_all.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -622,34 +622,34 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>var20</t>
+          <t>var6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>사업체수</t>
+          <t>양식음식점</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.205</v>
+        <v>0.306</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>0.182</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="E3" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>0.212</v>
+        <v>0.252</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>0.274</v>
+        <v>0.156</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -667,17 +667,23 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>0.169</v>
+        <v>0.227</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="S3" t="n">
-        <v>0.273</v>
+        <v>0.143</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -688,16 +694,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>var24</t>
+          <t>var18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>월평균소득</t>
+          <t>사업체수</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.45</v>
+        <v>0.443</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -705,17 +711,23 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.179</v>
+        <v>0.167</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="I4" t="n">
-        <v>-0.44</v>
+        <v>0.517</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -723,17 +735,23 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>-0.179</v>
+        <v>0.151</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="O4" t="n">
-        <v>-0.483</v>
+        <v>0.539</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -741,29 +759,35 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>-0.19</v>
+        <v>0.309</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>var6</t>
+          <t>var22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>양식음식점</t>
+          <t>대학교</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.218</v>
+        <v>0.165</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -771,17 +795,23 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.068</v>
+        <v>0.436</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.079</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="I5" t="n">
-        <v>0.224</v>
+        <v>0.165</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -789,15 +819,15 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.081</v>
+        <v>0.433</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>0.271</v>
+        <v>-0.082</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -805,7 +835,7 @@
         </is>
       </c>
       <c r="O5" t="n">
-        <v>0.187</v>
+        <v>0.164</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -813,101 +843,89 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>0.065</v>
+        <v>0.441</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>0.225</v>
+        <v>-0.063</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>var3</t>
+          <t>var4</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>애완동물</t>
+          <t>분식전문점</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.542</v>
+        <v>0.213</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>-0.531</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>-0.603</v>
+        <v>0.192</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="K6" t="n">
-        <v>-0.629</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="n">
-        <v>-0.649</v>
+        <v>0.308</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="Q6" t="n">
-        <v>-0.619</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>-0.035</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>var4</t>
+          <t>var12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>분식전문점</t>
+          <t>제과점</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.586</v>
+        <v>-0.271</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -917,15 +935,15 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>-0.043</v>
+        <v>-0.404</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.553</v>
+        <v>-0.32</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -934,34 +952,52 @@
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>-0.334</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="O7" t="n">
-        <v>0.483</v>
+        <v>-0.203</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>-0.157</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>var22</t>
+          <t>var3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>대학교</t>
+          <t>애완동물</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.129</v>
+        <v>-0.523</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -969,23 +1005,17 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.42</v>
+        <v>-0.444</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>-0.089</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>0.125</v>
+        <v>-0.664</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -993,23 +1023,17 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.404</v>
+        <v>-0.636</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>-0.08500000000000001</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>0.132</v>
+        <v>-0.584</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1017,89 +1041,101 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>0.403</v>
+        <v>-0.594</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="S8" t="n">
-        <v>-0.073</v>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>var9</t>
+          <t>var2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>치킨전문점</t>
+          <t>미용실</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.299</v>
+        <v>0.354</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="E9" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-0.285</v>
+        <v>0.486</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="O9" t="n">
-        <v>-0.348</v>
+        <v>0.211</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>var13</t>
+          <t>var16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>호프-간이주점</t>
+          <t>편의점</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.124</v>
+        <v>0.305</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1109,7 +1145,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>0.144</v>
+        <v>0.325</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1117,75 +1153,105 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.135</v>
+        <v>0.43</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="O10" t="n">
-        <v>0.14</v>
+        <v>0.397</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>0.278</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>var10</t>
+          <t>var19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>커피-음료</t>
+          <t>종사자수</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.06900000000000001</v>
+        <v>-0.189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>-0.259</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.307</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="Q11" t="n">
-        <v>0.102</v>
+        <v>-0.253</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1194,6 +1260,48 @@
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>var11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>패스트푸드점</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.119</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>-0.182</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
